--- a/src/main/webapp/static/uploadImg/schoolopus/511课表.xlsx
+++ b/src/main/webapp/static/uploadImg/schoolopus/511课表.xlsx
@@ -606,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
